--- a/Assets/RawData/Excel/PlayerBaseSkill.xlsx
+++ b/Assets/RawData/Excel/PlayerBaseSkill.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
   <si>
     <t xml:space="preserve">_id</t>
   </si>
@@ -74,19 +74,22 @@
     <t xml:space="preserve">ActiveAttack </t>
   </si>
   <si>
+    <t xml:space="preserve">Prefabs/Skill/Magician/Energy Volt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Images/Skill/Magician/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">파이어볼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마력을 불로 변환해 쏘는 마법입니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic </t>
+  </si>
+  <si>
     <t xml:space="preserve">Prefabs/Skill/Magician/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images/Skill/Magician/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">파이어볼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마력을 불로 변환해 쏘는 마법입니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic </t>
   </si>
   <si>
     <t xml:space="preserve">아이스스피어</t>
@@ -564,7 +567,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
+      <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -576,7 +579,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="11.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="32.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="31.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.01"/>
@@ -699,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>18</v>
@@ -710,10 +713,10 @@
         <v>103</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1.8</v>
@@ -740,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>18</v>
@@ -751,10 +754,10 @@
         <v>104</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2.3</v>
@@ -781,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>18</v>
@@ -792,10 +795,10 @@
         <v>105</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>2.5</v>
@@ -822,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>18</v>
@@ -833,10 +836,10 @@
         <v>106</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>4</v>
@@ -863,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>18</v>
@@ -874,10 +877,10 @@
         <v>107</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>3.5</v>
@@ -904,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>18</v>
@@ -915,10 +918,10 @@
         <v>108</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>6</v>
@@ -945,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>18</v>
@@ -956,10 +959,10 @@
         <v>201</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>150</v>
@@ -971,10 +974,10 @@
         <v>50</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>1</v>
@@ -986,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>18</v>
@@ -997,10 +1000,10 @@
         <v>202</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2</v>
@@ -1012,10 +1015,10 @@
         <v>6</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>1</v>
@@ -1027,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>18</v>
@@ -1038,10 +1041,10 @@
         <v>203</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>3</v>
@@ -1053,10 +1056,10 @@
         <v>7</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>2</v>
@@ -1068,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>18</v>
@@ -1079,10 +1082,10 @@
         <v>204</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>10</v>
@@ -1094,10 +1097,10 @@
         <v>30</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>2</v>
@@ -1109,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>18</v>
@@ -1120,10 +1123,10 @@
         <v>205</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>50</v>
@@ -1135,10 +1138,10 @@
         <v>100</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>3</v>
@@ -1150,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>18</v>
@@ -1161,10 +1164,10 @@
         <v>206</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
@@ -1179,7 +1182,7 @@
         <v>21</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>4</v>
@@ -1191,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>18</v>
@@ -1202,10 +1205,10 @@
         <v>207</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
@@ -1217,10 +1220,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>4</v>
@@ -1232,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>18</v>
@@ -1243,10 +1246,10 @@
         <v>208</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
@@ -1258,10 +1261,10 @@
         <v>5</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>7</v>
@@ -1273,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>18</v>
@@ -1347,7 +1350,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>11</v>
@@ -1368,10 +1371,10 @@
         <v>16</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1382,7 +1385,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1390,7 +1393,7 @@
         <v>201</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Assets/RawData/Excel/PlayerBaseSkill.xlsx
+++ b/Assets/RawData/Excel/PlayerBaseSkill.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
   <si>
     <t xml:space="preserve">_id</t>
   </si>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">ActiveAttack </t>
   </si>
   <si>
-    <t xml:space="preserve">Prefabs/Skill/Magician/Energy Volt</t>
+    <t xml:space="preserve">Prefabs/Skill/Magician/EnergyVolt</t>
   </si>
   <si>
     <t xml:space="preserve">Images/Skill/Magician/</t>
@@ -89,55 +89,76 @@
     <t xml:space="preserve">Magic </t>
   </si>
   <si>
+    <t xml:space="preserve">Prefabs/Skill/Magician/FireBall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아이스스피어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마력으로 얼음창으로 만들어 쏘는 마법입니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefabs/Skill/Magician/IceLance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마력폭팔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마력을 폭팔시켜 일정구역에 데미지를 입힙니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefabs/Skill/Magician/EnergyExplosion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대격변</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마력을 땅으로 흘려보내 폭팔하게 하는 마법입니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefabs/Skill/Magician/Cataclysm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">메테오</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하늘에서 메테오를 떨어트려 대규모 데미지를 입힙니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefabs/Skill/Magician/Meteors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">블리자드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주변이 다 얼어붙을 만큼의 블리자드를 소환합니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefabs/Skill/Magician/Blizzard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">흑마법</t>
+  </si>
+  <si>
+    <t xml:space="preserve">궁극의 마법</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefabs/Skill/Magician/BlackMagic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마나실드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">체력대신 마력으로 데미지 입습니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActiveBuff </t>
+  </si>
+  <si>
     <t xml:space="preserve">Prefabs/Skill/Magician/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아이스스피어</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마력으로 얼음창으로 만들어 쏘는 마법입니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마력폭팔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마력을 폭팔시켜 일정구역에 데미지를 입힙니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">대격변</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마력을 땅으로 흘려보내 폭팔하게 하는 마법입니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">메테오</t>
-  </si>
-  <si>
-    <t xml:space="preserve">하늘에서 메테오를 떨어트려 대규모 데미지를 입힙니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">블리자드</t>
-  </si>
-  <si>
-    <t xml:space="preserve">주변이 다 얼어붙을 만큼의 블리자드를 소환합니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">흑마법</t>
-  </si>
-  <si>
-    <t xml:space="preserve">궁극의 마법</t>
-  </si>
-  <si>
-    <t xml:space="preserve">마나실드</t>
-  </si>
-  <si>
-    <t xml:space="preserve">체력대신 마력으로 데미지 입습니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exclusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActiveBuff </t>
   </si>
   <si>
     <t xml:space="preserve">매직아머</t>
@@ -566,8 +587,8 @@
   </sheetPr>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="L29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -743,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>18</v>
@@ -754,10 +775,10 @@
         <v>104</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2.3</v>
@@ -784,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>18</v>
@@ -795,10 +816,10 @@
         <v>105</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>2.5</v>
@@ -825,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>18</v>
@@ -836,10 +857,10 @@
         <v>106</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>4</v>
@@ -866,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>18</v>
@@ -877,10 +898,10 @@
         <v>107</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>3.5</v>
@@ -907,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>18</v>
@@ -918,10 +939,10 @@
         <v>108</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>6</v>
@@ -948,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>18</v>
@@ -959,10 +980,10 @@
         <v>201</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>150</v>
@@ -974,10 +995,10 @@
         <v>50</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>1</v>
@@ -989,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>18</v>
@@ -1000,10 +1021,10 @@
         <v>202</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2</v>
@@ -1015,10 +1036,10 @@
         <v>6</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>1</v>
@@ -1030,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>18</v>
@@ -1041,10 +1062,10 @@
         <v>203</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>3</v>
@@ -1056,10 +1077,10 @@
         <v>7</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>2</v>
@@ -1071,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>18</v>
@@ -1082,10 +1103,10 @@
         <v>204</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>10</v>
@@ -1097,10 +1118,10 @@
         <v>30</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>2</v>
@@ -1112,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>18</v>
@@ -1123,10 +1144,10 @@
         <v>205</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>50</v>
@@ -1138,10 +1159,10 @@
         <v>100</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>3</v>
@@ -1153,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>18</v>
@@ -1164,10 +1185,10 @@
         <v>206</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
@@ -1182,7 +1203,7 @@
         <v>21</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>4</v>
@@ -1194,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>18</v>
@@ -1205,10 +1226,10 @@
         <v>207</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
@@ -1220,10 +1241,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>4</v>
@@ -1235,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>18</v>
@@ -1246,10 +1267,10 @@
         <v>208</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
@@ -1261,10 +1282,10 @@
         <v>5</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>7</v>
@@ -1276,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>18</v>
@@ -1350,7 +1371,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>11</v>
@@ -1371,10 +1392,10 @@
         <v>16</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1385,7 +1406,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1393,7 +1414,7 @@
         <v>201</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Assets/RawData/Excel/PlayerBaseSkill.xlsx
+++ b/Assets/RawData/Excel/PlayerBaseSkill.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
   <si>
     <t xml:space="preserve">_id</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">_spritePath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_cost</t>
   </si>
   <si>
     <t xml:space="preserve">에너지볼트</t>
@@ -585,10 +588,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O29" activeCellId="0" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -602,7 +605,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="11.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="32.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="31.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="33.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.01"/>
   </cols>
   <sheetData>
@@ -646,16 +649,19 @@
       <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -667,10 +673,10 @@
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>1</v>
@@ -682,10 +688,13 @@
         <v>1</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,10 +702,10 @@
         <v>102</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2</v>
@@ -708,10 +717,10 @@
         <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>2</v>
@@ -723,10 +732,13 @@
         <v>0</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -734,10 +746,10 @@
         <v>103</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1.8</v>
@@ -749,10 +761,10 @@
         <v>2.4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>2</v>
@@ -764,10 +776,13 @@
         <v>0</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,10 +790,10 @@
         <v>104</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2.3</v>
@@ -790,10 +805,10 @@
         <v>3.1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>2</v>
@@ -805,10 +820,13 @@
         <v>0</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -816,10 +834,10 @@
         <v>105</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>2.5</v>
@@ -831,10 +849,10 @@
         <v>3.5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>3</v>
@@ -846,10 +864,13 @@
         <v>0</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -857,10 +878,10 @@
         <v>106</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>4</v>
@@ -872,10 +893,10 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>5</v>
@@ -887,10 +908,13 @@
         <v>0</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,10 +922,10 @@
         <v>107</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>3.5</v>
@@ -913,10 +937,10 @@
         <v>3.9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>5</v>
@@ -928,10 +952,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -939,10 +966,10 @@
         <v>108</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>6</v>
@@ -954,10 +981,10 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>10</v>
@@ -969,10 +996,13 @@
         <v>0</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -980,10 +1010,10 @@
         <v>201</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>150</v>
@@ -995,10 +1025,10 @@
         <v>50</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>1</v>
@@ -1010,10 +1040,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,10 +1054,10 @@
         <v>202</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2</v>
@@ -1036,10 +1069,10 @@
         <v>6</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>1</v>
@@ -1051,10 +1084,13 @@
         <v>0</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1062,10 +1098,10 @@
         <v>203</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>3</v>
@@ -1077,10 +1113,10 @@
         <v>7</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>2</v>
@@ -1092,10 +1128,13 @@
         <v>0</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1103,10 +1142,10 @@
         <v>204</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>10</v>
@@ -1118,10 +1157,10 @@
         <v>30</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>2</v>
@@ -1133,10 +1172,13 @@
         <v>0</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,10 +1186,10 @@
         <v>205</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>50</v>
@@ -1159,10 +1201,10 @@
         <v>100</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>3</v>
@@ -1174,10 +1216,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1185,10 +1230,10 @@
         <v>206</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
@@ -1200,10 +1245,10 @@
         <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>4</v>
@@ -1215,10 +1260,13 @@
         <v>0</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,10 +1274,10 @@
         <v>207</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
@@ -1241,10 +1289,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>4</v>
@@ -1256,10 +1304,13 @@
         <v>0</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,10 +1318,10 @@
         <v>208</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
@@ -1282,10 +1333,10 @@
         <v>5</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>7</v>
@@ -1297,10 +1348,13 @@
         <v>0</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1321,7 +1375,7 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1371,7 +1425,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>11</v>
@@ -1386,16 +1440,16 @@
       </c>
       <c r="B2" s="1"/>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1403,10 +1457,10 @@
         <v>102</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1414,7 +1468,7 @@
         <v>201</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Assets/RawData/Excel/PlayerBaseSkill.xlsx
+++ b/Assets/RawData/Excel/PlayerBaseSkill.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="72">
   <si>
     <t xml:space="preserve">_id</t>
   </si>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">Prefabs/Skill/Magician/EnergyVolt</t>
   </si>
   <si>
-    <t xml:space="preserve">Images/Skill/Magician/</t>
+    <t xml:space="preserve">Icon/Skill/Magician/EnergyVolt</t>
   </si>
   <si>
     <t xml:space="preserve">파이어볼</t>
@@ -95,6 +95,9 @@
     <t xml:space="preserve">Prefabs/Skill/Magician/FireBall</t>
   </si>
   <si>
+    <t xml:space="preserve">Icon/Skill/Magician/FireBall</t>
+  </si>
+  <si>
     <t xml:space="preserve">아이스스피어</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
     <t xml:space="preserve">Prefabs/Skill/Magician/IceLance</t>
   </si>
   <si>
+    <t xml:space="preserve">Icon/Skill/Magician/IceLance</t>
+  </si>
+  <si>
     <t xml:space="preserve">마력폭팔</t>
   </si>
   <si>
@@ -113,6 +119,9 @@
     <t xml:space="preserve">Prefabs/Skill/Magician/EnergyExplosion</t>
   </si>
   <si>
+    <t xml:space="preserve">Icon/Skill/Magician/EnergyExplosion</t>
+  </si>
+  <si>
     <t xml:space="preserve">대격변</t>
   </si>
   <si>
@@ -122,6 +131,9 @@
     <t xml:space="preserve">Prefabs/Skill/Magician/Cataclysm</t>
   </si>
   <si>
+    <t xml:space="preserve">Icon/Skill/Magician/Cataclysm</t>
+  </si>
+  <si>
     <t xml:space="preserve">메테오</t>
   </si>
   <si>
@@ -131,6 +143,9 @@
     <t xml:space="preserve">Prefabs/Skill/Magician/Meteors</t>
   </si>
   <si>
+    <t xml:space="preserve">Icon/Skill/Magician/Meteors</t>
+  </si>
+  <si>
     <t xml:space="preserve">블리자드</t>
   </si>
   <si>
@@ -140,6 +155,9 @@
     <t xml:space="preserve">Prefabs/Skill/Magician/Blizzard</t>
   </si>
   <si>
+    <t xml:space="preserve">Icon/Skill/Magician/Blizzard</t>
+  </si>
+  <si>
     <t xml:space="preserve">흑마법</t>
   </si>
   <si>
@@ -149,6 +167,9 @@
     <t xml:space="preserve">Prefabs/Skill/Magician/BlackMagic</t>
   </si>
   <si>
+    <t xml:space="preserve">Icon/Skill/Magician/BlackMagic</t>
+  </si>
+  <si>
     <t xml:space="preserve">마나실드</t>
   </si>
   <si>
@@ -162,6 +183,9 @@
   </si>
   <si>
     <t xml:space="preserve">Prefabs/Skill/Magician/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icon/Skill/Magician/</t>
   </si>
   <si>
     <t xml:space="preserve">매직아머</t>
@@ -590,8 +614,8 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O29" activeCellId="0" sqref="O29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -604,8 +628,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="11.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="32.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="33.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="37.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="40.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.01"/>
   </cols>
   <sheetData>
@@ -735,7 +759,7 @@
         <v>23</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>20</v>
@@ -746,10 +770,10 @@
         <v>103</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1.8</v>
@@ -776,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>15</v>
@@ -790,10 +814,10 @@
         <v>104</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2.3</v>
@@ -820,10 +844,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>15</v>
@@ -834,10 +858,10 @@
         <v>105</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>2.5</v>
@@ -864,10 +888,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>50</v>
@@ -878,10 +902,10 @@
         <v>106</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>4</v>
@@ -908,10 +932,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>75</v>
@@ -922,10 +946,10 @@
         <v>107</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>3.5</v>
@@ -952,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>75</v>
@@ -966,10 +990,10 @@
         <v>108</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>6</v>
@@ -996,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>100</v>
@@ -1010,10 +1034,10 @@
         <v>201</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>150</v>
@@ -1025,10 +1049,10 @@
         <v>50</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>1</v>
@@ -1040,10 +1064,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>0</v>
@@ -1054,10 +1078,10 @@
         <v>202</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2</v>
@@ -1069,10 +1093,10 @@
         <v>6</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>1</v>
@@ -1084,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>20</v>
@@ -1098,10 +1122,10 @@
         <v>203</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>3</v>
@@ -1113,10 +1137,10 @@
         <v>7</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>2</v>
@@ -1128,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>50</v>
@@ -1142,10 +1166,10 @@
         <v>204</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>10</v>
@@ -1157,10 +1181,10 @@
         <v>30</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>2</v>
@@ -1172,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="N13" s="0" t="n">
         <v>20</v>
@@ -1186,10 +1210,10 @@
         <v>205</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>50</v>
@@ -1201,10 +1225,10 @@
         <v>100</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>3</v>
@@ -1216,10 +1240,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="N14" s="0" t="n">
         <v>0</v>
@@ -1230,10 +1254,10 @@
         <v>206</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
@@ -1248,7 +1272,7 @@
         <v>22</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>4</v>
@@ -1260,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="N15" s="0" t="n">
         <v>50</v>
@@ -1274,10 +1298,10 @@
         <v>207</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
@@ -1289,10 +1313,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>4</v>
@@ -1304,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="N16" s="0" t="n">
         <v>50</v>
@@ -1318,10 +1342,10 @@
         <v>208</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
@@ -1333,10 +1357,10 @@
         <v>5</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>7</v>
@@ -1348,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="N17" s="0" t="n">
         <v>75</v>
@@ -1375,7 +1399,7 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1425,7 +1449,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>11</v>
@@ -1446,10 +1470,10 @@
         <v>17</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,7 +1484,7 @@
         <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,7 +1492,7 @@
         <v>201</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Assets/RawData/Excel/PlayerBaseSkill.xlsx
+++ b/Assets/RawData/Excel/PlayerBaseSkill.xlsx
@@ -614,8 +614,8 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>1</v>

--- a/Assets/RawData/Excel/PlayerBaseSkill.xlsx
+++ b/Assets/RawData/Excel/PlayerBaseSkill.xlsx
@@ -614,8 +614,8 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -996,13 +996,13 @@
         <v>46</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>22</v>
